--- a/data/zenodo_ivan/trade/CHE_trd_coal.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388D9D8-5487-BC41-AA83-F387D5439054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE3B05-8D0C-6C42-B543-C976EF2232B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="82">
   <si>
     <t>Name:</t>
   </si>
@@ -113,12 +113,6 @@
     <t>enable_export</t>
   </si>
   <si>
-    <t>enable_max_inflow_share</t>
-  </si>
-  <si>
-    <t>enable_max_outflow_share</t>
-  </si>
-  <si>
     <t>buildrate</t>
   </si>
   <si>
@@ -276,6 +270,15 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>trd_gas</t>
+  </si>
+  <si>
+    <t>enable_max_import_share</t>
+  </si>
+  <si>
+    <t>enable_max_export_share</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -783,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -800,7 +803,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -814,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -828,10 +831,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -842,10 +845,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -856,10 +859,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -870,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -882,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -896,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>23</v>
@@ -908,13 +911,13 @@
         <v>15818.000000000002</v>
       </c>
       <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -922,10 +925,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -936,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -950,22 +953,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -973,10 +976,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -988,16 +991,16 @@
         <v>360</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1020,7 +1023,7 @@
         <v>230</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1029,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1044,7 +1047,7 @@
         <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1053,10 +1056,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1068,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -1077,10 +1080,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1092,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1101,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1116,7 +1119,7 @@
         <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22" s="2"/>
     </row>
@@ -1125,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1140,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -1149,10 +1152,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1164,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -1173,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -1197,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1212,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -1221,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1236,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -1245,10 +1248,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1260,7 +1263,7 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2"/>
     </row>
@@ -1269,10 +1272,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -1293,10 +1296,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K30" s="2"/>
     </row>
@@ -1317,10 +1320,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1332,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="2"/>
     </row>
@@ -1341,10 +1344,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K32" s="2"/>
     </row>
@@ -1365,10 +1368,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1380,7 +1383,7 @@
         <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -1389,10 +1392,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -1413,10 +1416,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1428,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K35" s="2"/>
     </row>
@@ -1437,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1452,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K36" s="2"/>
     </row>
@@ -1461,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -1485,10 +1488,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -1509,10 +1512,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -1533,10 +1536,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -1557,10 +1560,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K41" s="2"/>
     </row>
@@ -1581,10 +1584,10 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K42" s="2"/>
     </row>
@@ -1605,10 +1608,10 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1620,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K43" s="2"/>
     </row>
@@ -1629,10 +1632,10 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -1644,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K44" s="2"/>
     </row>
@@ -1653,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -1668,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K45" s="2"/>
     </row>
@@ -1677,10 +1680,10 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1692,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K46" s="2"/>
     </row>
@@ -1701,10 +1704,10 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -1716,16 +1719,16 @@
         <v>14380</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1733,10 +1736,10 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -1748,16 +1751,16 @@
         <v>11480</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1765,10 +1768,10 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1780,16 +1783,16 @@
         <v>5350</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1797,10 +1800,10 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -1812,16 +1815,16 @@
         <v>4350</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1829,10 +1832,10 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -1844,16 +1847,16 @@
         <v>4520</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -1861,10 +1864,10 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -1876,16 +1879,16 @@
         <v>6780</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -1893,10 +1896,10 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -1908,16 +1911,16 @@
         <v>4560</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -1925,10 +1928,10 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -1940,16 +1943,16 @@
         <v>3110</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -1957,10 +1960,10 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -1972,16 +1975,16 @@
         <v>2690</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -1989,10 +1992,10 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -2004,16 +2007,16 @@
         <v>2570</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2021,10 +2024,10 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -2036,16 +2039,16 @@
         <v>7830</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2053,10 +2056,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -2068,16 +2071,16 @@
         <v>5330</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2085,10 +2088,10 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -2100,16 +2103,16 @@
         <v>4300</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2117,10 +2120,10 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -2132,16 +2135,16 @@
         <v>3110</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s">
         <v>19</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2149,10 +2152,10 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -2164,16 +2167,16 @@
         <v>5400</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2181,10 +2184,10 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -2196,16 +2199,16 @@
         <v>4110</v>
       </c>
       <c r="H62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2213,10 +2216,10 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -2228,16 +2231,16 @@
         <v>6720</v>
       </c>
       <c r="H63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2245,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -2260,16 +2263,16 @@
         <v>8460</v>
       </c>
       <c r="H64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2277,10 +2280,10 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -2292,16 +2295,16 @@
         <v>6490</v>
       </c>
       <c r="H65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J65" t="s">
         <v>19</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2309,10 +2312,10 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -2324,16 +2327,16 @@
         <v>6810</v>
       </c>
       <c r="H66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2341,10 +2344,10 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -2356,16 +2359,16 @@
         <v>5380</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2373,10 +2376,10 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -2388,16 +2391,16 @@
         <v>4750</v>
       </c>
       <c r="H68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2405,10 +2408,10 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -2420,16 +2423,16 @@
         <v>5390</v>
       </c>
       <c r="H69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J69" t="s">
         <v>19</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2437,10 +2440,10 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -2452,16 +2455,16 @@
         <v>5700</v>
       </c>
       <c r="H70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J70" t="s">
         <v>19</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2469,10 +2472,10 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -2484,16 +2487,16 @@
         <v>4640</v>
       </c>
       <c r="H71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2501,10 +2504,10 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2516,16 +2519,16 @@
         <v>5440</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2533,10 +2536,10 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2548,16 +2551,16 @@
         <v>4760</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2565,10 +2568,10 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2580,16 +2583,16 @@
         <v>4590</v>
       </c>
       <c r="H74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2597,10 +2600,10 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -2612,16 +2615,16 @@
         <v>3390</v>
       </c>
       <c r="H75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
         <v>19</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2629,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -2644,16 +2647,16 @@
         <v>3360</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J76" t="s">
         <v>19</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2661,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -2676,16 +2679,16 @@
         <v>103.5</v>
       </c>
       <c r="H77" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s">
+        <v>43</v>
+      </c>
+      <c r="L77" t="s">
         <v>44</v>
-      </c>
-      <c r="I77" t="s">
-        <v>39</v>
-      </c>
-      <c r="J77" t="s">
-        <v>45</v>
-      </c>
-      <c r="L77" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2693,10 +2696,10 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -2708,16 +2711,16 @@
         <v>100</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2725,10 +2728,10 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -2740,16 +2743,16 @@
         <v>90.1</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2757,10 +2760,10 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -2772,16 +2775,16 @@
         <v>76.5</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2789,10 +2792,10 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -2804,16 +2807,16 @@
         <v>79.599999999999994</v>
       </c>
       <c r="H81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2821,10 +2824,10 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -2836,16 +2839,16 @@
         <v>101.5</v>
       </c>
       <c r="H82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -2853,10 +2856,10 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -2868,16 +2871,16 @@
         <v>99.8</v>
       </c>
       <c r="H83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -2885,10 +2888,10 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -2900,16 +2903,16 @@
         <v>84.5</v>
       </c>
       <c r="H84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -2917,10 +2920,10 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -2932,16 +2935,16 @@
         <v>84.3</v>
       </c>
       <c r="H85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -2949,10 +2952,10 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -2964,16 +2967,16 @@
         <v>78.7</v>
       </c>
       <c r="H86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -2981,10 +2984,10 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -2996,16 +2999,16 @@
         <v>85.9</v>
       </c>
       <c r="H87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3013,10 +3016,10 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -3028,16 +3031,16 @@
         <v>98.1</v>
       </c>
       <c r="H88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3045,10 +3048,10 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -3060,16 +3063,16 @@
         <v>88.1</v>
       </c>
       <c r="H89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3077,10 +3080,10 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -3092,16 +3095,16 @@
         <v>107.5</v>
       </c>
       <c r="H90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3109,10 +3112,10 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -3124,16 +3127,16 @@
         <v>157.30000000000001</v>
       </c>
       <c r="H91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3141,10 +3144,10 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -3156,16 +3159,16 @@
         <v>157.19999999999999</v>
       </c>
       <c r="H92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3173,10 +3176,10 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -3188,16 +3191,16 @@
         <v>158.9</v>
       </c>
       <c r="H93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3205,10 +3208,10 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -3220,16 +3223,16 @@
         <v>208.4</v>
       </c>
       <c r="H94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3237,10 +3240,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -3252,16 +3255,16 @@
         <v>360.7</v>
       </c>
       <c r="H95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3269,10 +3272,10 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -3284,16 +3287,16 @@
         <v>229.8</v>
       </c>
       <c r="H96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3301,10 +3304,10 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -3316,16 +3319,16 @@
         <v>258.89999999999998</v>
       </c>
       <c r="H97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3333,10 +3336,10 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -3348,16 +3351,16 @@
         <v>334.4</v>
       </c>
       <c r="H98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3365,10 +3368,10 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -3380,16 +3383,16 @@
         <v>254.2</v>
       </c>
       <c r="H99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3397,10 +3400,10 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -3412,16 +3415,16 @@
         <v>205.9</v>
       </c>
       <c r="H100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3429,10 +3432,10 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -3444,16 +3447,16 @@
         <v>187.1</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3461,10 +3464,10 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -3476,16 +3479,16 @@
         <v>164.5</v>
       </c>
       <c r="H102" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3493,10 +3496,10 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -3508,16 +3511,16 @@
         <v>151.4</v>
       </c>
       <c r="H103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3525,10 +3528,10 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -3540,16 +3543,16 @@
         <v>160.9</v>
       </c>
       <c r="H104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3557,10 +3560,10 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -3572,16 +3575,16 @@
         <v>195.1</v>
       </c>
       <c r="H105" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3589,10 +3592,10 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -3604,16 +3607,16 @@
         <v>159</v>
       </c>
       <c r="H106" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/zenodo_ivan/trade/CHE_trd_coal.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE3B05-8D0C-6C42-B543-C976EF2232B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33AD416-FBD5-C94F-BC15-34AEC0B35F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="80">
   <si>
     <t>Name:</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>co2_factor</t>
-  </si>
-  <si>
-    <t>max_export_share</t>
-  </si>
-  <si>
-    <t>max_import_share</t>
   </si>
   <si>
     <t>actual_export</t>
@@ -700,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -724,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -786,7 +780,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -803,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -817,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -831,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -845,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -859,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -873,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -885,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -899,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>23</v>
@@ -911,13 +905,13 @@
         <v>15818.000000000002</v>
       </c>
       <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -925,13 +919,22 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -939,13 +942,31 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>1990</v>
+      </c>
+      <c r="G15">
+        <v>360</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -953,413 +974,406 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>1991</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G17">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G18">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G19">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G20">
+        <v>220</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>1996</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>1997</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>1998</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1994</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>1995</v>
-      </c>
-      <c r="G22">
-        <v>220</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>1996</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>2001</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>2002</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>1999</v>
-      </c>
-      <c r="G26">
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>2003</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>2004</v>
+      </c>
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>2000</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>2001</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>2002</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K32" s="2"/>
     </row>
@@ -1368,22 +1382,22 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G33">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K33" s="2"/>
     </row>
@@ -1392,22 +1406,22 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -1416,22 +1430,22 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K35" s="2"/>
     </row>
@@ -1440,22 +1454,22 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K36" s="2"/>
     </row>
@@ -1464,22 +1478,22 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -1488,22 +1502,22 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -1512,22 +1526,22 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K39" s="2"/>
     </row>
@@ -1536,22 +1550,22 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K40" s="2"/>
     </row>
@@ -1560,22 +1574,22 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K41" s="2"/>
     </row>
@@ -1584,22 +1598,22 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K42" s="2"/>
     </row>
@@ -1608,22 +1622,22 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K43" s="2"/>
     </row>
@@ -1632,22 +1646,22 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K44" s="2"/>
     </row>
@@ -1656,79 +1670,95 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>14380</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>11480</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G47">
-        <v>14380</v>
+        <v>5350</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1736,31 +1766,31 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G48">
-        <v>11480</v>
+        <v>4350</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1768,31 +1798,31 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G49">
-        <v>5350</v>
+        <v>4520</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1800,31 +1830,31 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G50">
-        <v>4350</v>
+        <v>6780</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1832,31 +1862,31 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G51">
-        <v>4520</v>
+        <v>4560</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -1864,31 +1894,31 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G52">
-        <v>6780</v>
+        <v>3110</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -1896,31 +1926,31 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G53">
-        <v>4560</v>
+        <v>2690</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -1928,31 +1958,31 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G54">
-        <v>3110</v>
+        <v>2570</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -1960,31 +1990,31 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G55">
-        <v>2690</v>
+        <v>7830</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -1992,31 +2022,31 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G56">
-        <v>2570</v>
+        <v>5330</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2024,31 +2054,31 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G57">
-        <v>7830</v>
+        <v>4300</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2056,31 +2086,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G58">
-        <v>5330</v>
+        <v>3110</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,31 +2118,31 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G59">
-        <v>4300</v>
+        <v>5400</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2120,31 +2150,31 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G60">
-        <v>3110</v>
+        <v>4110</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J60" t="s">
         <v>19</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2152,31 +2182,31 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G61">
-        <v>5400</v>
+        <v>6720</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2184,31 +2214,31 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G62">
-        <v>4110</v>
+        <v>8460</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2216,31 +2246,31 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G63">
-        <v>6720</v>
+        <v>6490</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2248,31 +2278,31 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G64">
-        <v>8460</v>
+        <v>6810</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2280,31 +2310,31 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G65">
-        <v>6490</v>
+        <v>5380</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J65" t="s">
         <v>19</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,31 +2342,31 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G66">
-        <v>6810</v>
+        <v>4750</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,31 +2374,31 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G67">
-        <v>5380</v>
+        <v>5390</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2376,31 +2406,31 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G68">
-        <v>4750</v>
+        <v>5700</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,31 +2438,31 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G69">
-        <v>5390</v>
+        <v>4640</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J69" t="s">
         <v>19</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,31 +2470,31 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G70">
-        <v>5700</v>
+        <v>5440</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J70" t="s">
         <v>19</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,31 +2502,31 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G71">
-        <v>4640</v>
+        <v>4760</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2504,31 +2534,31 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G72">
-        <v>5440</v>
+        <v>4590</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,31 +2566,31 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G73">
-        <v>4760</v>
+        <v>3390</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2568,31 +2598,31 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G74">
-        <v>4590</v>
+        <v>3360</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2600,31 +2630,31 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G75">
-        <v>3390</v>
+        <v>103.5</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2632,31 +2662,31 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="G76">
-        <v>3360</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,31 +2694,31 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G77">
-        <v>103.5</v>
+        <v>90.1</v>
       </c>
       <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s">
+        <v>35</v>
+      </c>
+      <c r="J77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" t="s">
         <v>42</v>
-      </c>
-      <c r="I77" t="s">
-        <v>37</v>
-      </c>
-      <c r="J77" t="s">
-        <v>43</v>
-      </c>
-      <c r="L77" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2696,31 +2726,31 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>76.5</v>
       </c>
       <c r="H78" t="s">
         <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2728,31 +2758,31 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G79">
-        <v>90.1</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H79" t="s">
         <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2760,31 +2790,31 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G80">
-        <v>76.5</v>
+        <v>101.5</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2792,31 +2822,31 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G81">
-        <v>79.599999999999994</v>
+        <v>99.8</v>
       </c>
       <c r="H81" t="s">
         <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2824,31 +2854,31 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G82">
-        <v>101.5</v>
+        <v>84.5</v>
       </c>
       <c r="H82" t="s">
         <v>49</v>
       </c>
       <c r="I82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -2856,31 +2886,31 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G83">
-        <v>99.8</v>
+        <v>84.3</v>
       </c>
       <c r="H83" t="s">
         <v>50</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -2888,31 +2918,31 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G84">
-        <v>84.5</v>
+        <v>78.7</v>
       </c>
       <c r="H84" t="s">
         <v>51</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,31 +2950,31 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G85">
-        <v>84.3</v>
+        <v>85.9</v>
       </c>
       <c r="H85" t="s">
         <v>52</v>
       </c>
       <c r="I85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -2952,31 +2982,31 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G86">
-        <v>78.7</v>
+        <v>98.1</v>
       </c>
       <c r="H86" t="s">
         <v>53</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,31 +3014,31 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G87">
-        <v>85.9</v>
+        <v>88.1</v>
       </c>
       <c r="H87" t="s">
         <v>54</v>
       </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3016,31 +3046,31 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G88">
-        <v>98.1</v>
+        <v>107.5</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
       </c>
       <c r="I88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3048,31 +3078,31 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G89">
-        <v>88.1</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="H89" t="s">
         <v>56</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3080,31 +3110,31 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G90">
-        <v>107.5</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="H90" t="s">
         <v>57</v>
       </c>
       <c r="I90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3112,31 +3142,31 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G91">
-        <v>157.30000000000001</v>
+        <v>158.9</v>
       </c>
       <c r="H91" t="s">
         <v>58</v>
       </c>
       <c r="I91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3144,31 +3174,31 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G92">
-        <v>157.19999999999999</v>
+        <v>208.4</v>
       </c>
       <c r="H92" t="s">
         <v>59</v>
       </c>
       <c r="I92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3176,31 +3206,31 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G93">
-        <v>158.9</v>
+        <v>360.7</v>
       </c>
       <c r="H93" t="s">
         <v>60</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3208,31 +3238,31 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G94">
-        <v>208.4</v>
+        <v>229.8</v>
       </c>
       <c r="H94" t="s">
         <v>61</v>
       </c>
       <c r="I94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,31 +3270,31 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G95">
-        <v>360.7</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="H95" t="s">
         <v>62</v>
       </c>
       <c r="I95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3272,31 +3302,31 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G96">
-        <v>229.8</v>
+        <v>334.4</v>
       </c>
       <c r="H96" t="s">
         <v>63</v>
       </c>
       <c r="I96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3304,31 +3334,31 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G97">
-        <v>258.89999999999998</v>
+        <v>254.2</v>
       </c>
       <c r="H97" t="s">
         <v>64</v>
       </c>
       <c r="I97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3336,31 +3366,31 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G98">
-        <v>334.4</v>
+        <v>205.9</v>
       </c>
       <c r="H98" t="s">
         <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3368,31 +3398,31 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G99">
-        <v>254.2</v>
+        <v>187.1</v>
       </c>
       <c r="H99" t="s">
         <v>66</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,31 +3430,31 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G100">
-        <v>205.9</v>
+        <v>164.5</v>
       </c>
       <c r="H100" t="s">
         <v>67</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3432,31 +3462,31 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G101">
-        <v>187.1</v>
+        <v>151.4</v>
       </c>
       <c r="H101" t="s">
         <v>68</v>
       </c>
       <c r="I101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3464,31 +3494,31 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G102">
-        <v>164.5</v>
+        <v>160.9</v>
       </c>
       <c r="H102" t="s">
         <v>69</v>
       </c>
       <c r="I102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3496,31 +3526,31 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G103">
-        <v>151.4</v>
+        <v>195.1</v>
       </c>
       <c r="H103" t="s">
         <v>70</v>
       </c>
       <c r="I103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3528,99 +3558,35 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G104">
-        <v>160.9</v>
+        <v>159</v>
       </c>
       <c r="H104" t="s">
         <v>71</v>
       </c>
       <c r="I104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>32</v>
-      </c>
-      <c r="D105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105">
-        <v>2018</v>
-      </c>
-      <c r="G105">
-        <v>195.1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>72</v>
-      </c>
-      <c r="I105" t="s">
-        <v>37</v>
-      </c>
-      <c r="J105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L105" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106">
-        <v>2019</v>
-      </c>
-      <c r="G106">
-        <v>159</v>
-      </c>
-      <c r="H106" t="s">
-        <v>73</v>
-      </c>
-      <c r="I106" t="s">
-        <v>37</v>
-      </c>
-      <c r="J106" t="s">
-        <v>43</v>
-      </c>
-      <c r="L106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L305" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_coal.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33AD416-FBD5-C94F-BC15-34AEC0B35F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690B4F8C-9FB5-A944-B712-AF8D0A15F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="82">
   <si>
     <t>Name:</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>enable_max_export_share</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -694,11 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,10 +862,16 @@
         <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -870,23 +882,11 @@
         <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -896,22 +896,22 @@
         <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>15818.000000000002</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -922,20 +922,23 @@
         <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>15818.000000000002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>33</v>
       </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -944,29 +947,20 @@
       <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>1990</v>
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>360</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -983,15 +977,23 @@
         <v>18</v>
       </c>
       <c r="E16">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G16">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1007,10 +1009,10 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G17">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -1031,10 +1033,10 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
         <v>31</v>
@@ -1055,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1081,10 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G20">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
@@ -1103,10 +1105,10 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -1127,10 +1129,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -1151,10 +1153,10 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
@@ -1175,10 +1177,10 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
@@ -1199,7 +1201,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1223,10 +1225,10 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>31</v>
@@ -1247,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
         <v>31</v>
@@ -1271,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1295,10 +1297,10 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
@@ -1319,10 +1321,10 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>31</v>
@@ -1343,10 +1345,10 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G31">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>31</v>
@@ -1367,10 +1369,10 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H32" t="s">
         <v>31</v>
@@ -1391,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1439,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1463,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1487,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1511,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1535,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1559,7 +1561,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1583,10 +1585,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -1607,10 +1609,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -1631,7 +1633,7 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
         <v>31</v>
@@ -1673,29 +1675,21 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G45">
-        <v>14380</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" t="s">
-        <v>38</v>
-      </c>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1711,10 +1705,10 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G46">
-        <v>11480</v>
+        <v>14380</v>
       </c>
       <c r="H46" t="s">
         <v>31</v>
@@ -1743,10 +1737,10 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G47">
-        <v>5350</v>
+        <v>11480</v>
       </c>
       <c r="H47" t="s">
         <v>31</v>
@@ -1775,10 +1769,10 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G48">
-        <v>4350</v>
+        <v>5350</v>
       </c>
       <c r="H48" t="s">
         <v>31</v>
@@ -1807,10 +1801,10 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G49">
-        <v>4520</v>
+        <v>4350</v>
       </c>
       <c r="H49" t="s">
         <v>31</v>
@@ -1839,10 +1833,10 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G50">
-        <v>6780</v>
+        <v>4520</v>
       </c>
       <c r="H50" t="s">
         <v>31</v>
@@ -1871,10 +1865,10 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G51">
-        <v>4560</v>
+        <v>6780</v>
       </c>
       <c r="H51" t="s">
         <v>31</v>
@@ -1903,10 +1897,10 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G52">
-        <v>3110</v>
+        <v>4560</v>
       </c>
       <c r="H52" t="s">
         <v>31</v>
@@ -1935,10 +1929,10 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G53">
-        <v>2690</v>
+        <v>3110</v>
       </c>
       <c r="H53" t="s">
         <v>31</v>
@@ -1967,10 +1961,10 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G54">
-        <v>2570</v>
+        <v>2690</v>
       </c>
       <c r="H54" t="s">
         <v>31</v>
@@ -1999,10 +1993,10 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G55">
-        <v>7830</v>
+        <v>2570</v>
       </c>
       <c r="H55" t="s">
         <v>31</v>
@@ -2031,10 +2025,10 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G56">
-        <v>5330</v>
+        <v>7830</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
@@ -2063,10 +2057,10 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G57">
-        <v>4300</v>
+        <v>5330</v>
       </c>
       <c r="H57" t="s">
         <v>31</v>
@@ -2095,10 +2089,10 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G58">
-        <v>3110</v>
+        <v>4300</v>
       </c>
       <c r="H58" t="s">
         <v>31</v>
@@ -2127,10 +2121,10 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G59">
-        <v>5400</v>
+        <v>3110</v>
       </c>
       <c r="H59" t="s">
         <v>31</v>
@@ -2159,10 +2153,10 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>4110</v>
+        <v>5400</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
@@ -2191,10 +2185,10 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G61">
-        <v>6720</v>
+        <v>4110</v>
       </c>
       <c r="H61" t="s">
         <v>31</v>
@@ -2223,10 +2217,10 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G62">
-        <v>8460</v>
+        <v>6720</v>
       </c>
       <c r="H62" t="s">
         <v>31</v>
@@ -2255,10 +2249,10 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G63">
-        <v>6490</v>
+        <v>8460</v>
       </c>
       <c r="H63" t="s">
         <v>31</v>
@@ -2287,10 +2281,10 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G64">
-        <v>6810</v>
+        <v>6490</v>
       </c>
       <c r="H64" t="s">
         <v>31</v>
@@ -2319,10 +2313,10 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G65">
-        <v>5380</v>
+        <v>6810</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
@@ -2351,10 +2345,10 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G66">
-        <v>4750</v>
+        <v>5380</v>
       </c>
       <c r="H66" t="s">
         <v>31</v>
@@ -2383,10 +2377,10 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G67">
-        <v>5390</v>
+        <v>4750</v>
       </c>
       <c r="H67" t="s">
         <v>31</v>
@@ -2415,10 +2409,10 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G68">
-        <v>5700</v>
+        <v>5390</v>
       </c>
       <c r="H68" t="s">
         <v>31</v>
@@ -2447,10 +2441,10 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G69">
-        <v>4640</v>
+        <v>5700</v>
       </c>
       <c r="H69" t="s">
         <v>31</v>
@@ -2479,10 +2473,10 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G70">
-        <v>5440</v>
+        <v>4640</v>
       </c>
       <c r="H70" t="s">
         <v>31</v>
@@ -2511,10 +2505,10 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G71">
-        <v>4760</v>
+        <v>5440</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
@@ -2543,10 +2537,10 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G72">
-        <v>4590</v>
+        <v>4760</v>
       </c>
       <c r="H72" t="s">
         <v>31</v>
@@ -2575,10 +2569,10 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G73">
-        <v>3390</v>
+        <v>4590</v>
       </c>
       <c r="H73" t="s">
         <v>31</v>
@@ -2607,10 +2601,10 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G74">
-        <v>3360</v>
+        <v>3390</v>
       </c>
       <c r="H74" t="s">
         <v>31</v>
@@ -2633,28 +2627,28 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G75">
-        <v>103.5</v>
+        <v>3360</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="L75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2671,13 +2665,13 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G76">
-        <v>100</v>
+        <v>103.5</v>
       </c>
       <c r="H76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s">
         <v>35</v>
@@ -2703,13 +2697,13 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G77">
-        <v>90.1</v>
+        <v>100</v>
       </c>
       <c r="H77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I77" t="s">
         <v>35</v>
@@ -2735,13 +2729,13 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G78">
-        <v>76.5</v>
+        <v>90.1</v>
       </c>
       <c r="H78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s">
         <v>35</v>
@@ -2767,13 +2761,13 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G79">
-        <v>79.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
         <v>35</v>
@@ -2799,13 +2793,13 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G80">
-        <v>101.5</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
         <v>35</v>
@@ -2831,13 +2825,13 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G81">
-        <v>99.8</v>
+        <v>101.5</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
         <v>35</v>
@@ -2863,13 +2857,13 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G82">
-        <v>84.5</v>
+        <v>99.8</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
         <v>35</v>
@@ -2895,13 +2889,13 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G83">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="H83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I83" t="s">
         <v>35</v>
@@ -2927,13 +2921,13 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G84">
-        <v>78.7</v>
+        <v>84.3</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I84" t="s">
         <v>35</v>
@@ -2959,13 +2953,13 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G85">
-        <v>85.9</v>
+        <v>78.7</v>
       </c>
       <c r="H85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I85" t="s">
         <v>35</v>
@@ -2991,13 +2985,13 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G86">
-        <v>98.1</v>
+        <v>85.9</v>
       </c>
       <c r="H86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s">
         <v>35</v>
@@ -3023,13 +3017,13 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G87">
-        <v>88.1</v>
+        <v>98.1</v>
       </c>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I87" t="s">
         <v>35</v>
@@ -3055,13 +3049,13 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G88">
-        <v>107.5</v>
+        <v>88.1</v>
       </c>
       <c r="H88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I88" t="s">
         <v>35</v>
@@ -3087,13 +3081,13 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G89">
-        <v>157.30000000000001</v>
+        <v>107.5</v>
       </c>
       <c r="H89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I89" t="s">
         <v>35</v>
@@ -3119,13 +3113,13 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G90">
-        <v>157.19999999999999</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="H90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I90" t="s">
         <v>35</v>
@@ -3151,13 +3145,13 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G91">
-        <v>158.9</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="H91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I91" t="s">
         <v>35</v>
@@ -3183,13 +3177,13 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G92">
-        <v>208.4</v>
+        <v>158.9</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I92" t="s">
         <v>35</v>
@@ -3215,13 +3209,13 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G93">
-        <v>360.7</v>
+        <v>208.4</v>
       </c>
       <c r="H93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I93" t="s">
         <v>35</v>
@@ -3247,13 +3241,13 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G94">
-        <v>229.8</v>
+        <v>360.7</v>
       </c>
       <c r="H94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I94" t="s">
         <v>35</v>
@@ -3279,13 +3273,13 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G95">
-        <v>258.89999999999998</v>
+        <v>229.8</v>
       </c>
       <c r="H95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I95" t="s">
         <v>35</v>
@@ -3311,13 +3305,13 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G96">
-        <v>334.4</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="H96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I96" t="s">
         <v>35</v>
@@ -3343,13 +3337,13 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G97">
-        <v>254.2</v>
+        <v>334.4</v>
       </c>
       <c r="H97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I97" t="s">
         <v>35</v>
@@ -3375,13 +3369,13 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G98">
-        <v>205.9</v>
+        <v>254.2</v>
       </c>
       <c r="H98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I98" t="s">
         <v>35</v>
@@ -3407,13 +3401,13 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G99">
-        <v>187.1</v>
+        <v>205.9</v>
       </c>
       <c r="H99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I99" t="s">
         <v>35</v>
@@ -3439,13 +3433,13 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G100">
-        <v>164.5</v>
+        <v>187.1</v>
       </c>
       <c r="H100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I100" t="s">
         <v>35</v>
@@ -3471,13 +3465,13 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G101">
-        <v>151.4</v>
+        <v>164.5</v>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I101" t="s">
         <v>35</v>
@@ -3503,13 +3497,13 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G102">
-        <v>160.9</v>
+        <v>151.4</v>
       </c>
       <c r="H102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I102" t="s">
         <v>35</v>
@@ -3535,13 +3529,13 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G103">
-        <v>195.1</v>
+        <v>160.9</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -3567,13 +3561,13 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G104">
-        <v>159</v>
+        <v>195.1</v>
       </c>
       <c r="H104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -3585,8 +3579,40 @@
         <v>42</v>
       </c>
     </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>2019</v>
+      </c>
+      <c r="G105">
+        <v>159</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105" t="s">
+        <v>35</v>
+      </c>
+      <c r="J105" t="s">
+        <v>41</v>
+      </c>
+      <c r="L105" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L303" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
